--- a/牛頓法求根20220602.xlsx
+++ b/牛頓法求根20220602.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2130" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -102,10 +102,6 @@
     <t>x19</t>
   </si>
   <si>
-    <t>跌代次數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x20</t>
   </si>
   <si>
@@ -154,14 +150,18 @@
     <t>y'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>迭代次數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="0.000000000"/>
-    <numFmt numFmtId="203" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.000000000"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -179,7 +179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +192,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -245,23 +251,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="203" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -314,7 +346,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-TW" altLang="en-US"/>
-              <a:t>牛頓法求跟</a:t>
+              <a:t>牛頓法求根</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="zh-TW"/>
           </a:p>
@@ -7112,63 +7144,49 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7187,9 +7205,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7344,11 +7360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1449521984"/>
-        <c:axId val="1449537216"/>
+        <c:axId val="-1945368336"/>
+        <c:axId val="-1945354192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1449521984"/>
+        <c:axId val="-1945368336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7405,12 +7421,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449537216"/>
+        <c:crossAx val="-1945354192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1449537216"/>
+        <c:axId val="-1945354192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7467,7 +7483,7229 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449521984"/>
+        <c:crossAx val="-1945368336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>牛頓法求根</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$A$2:$A$1102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>638</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>686</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>688</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>693</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>738</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>742</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>758</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>807</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>812</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>813</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>814</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>818</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>826</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>829</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>833</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>834</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>839</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>842</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>852</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>853</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>856</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>857</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>859</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>862</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>866</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>869</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>872</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>873</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>876</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>877</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>879</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>882</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>884</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>889</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>891</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>892</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>893</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>894</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>895</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>897</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>898</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>899</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>905</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>906</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>907</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>909</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>914</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>922</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>923</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>924</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>927</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>929</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>938</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>939</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>947</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>948</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>956</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>963</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1000">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="1001">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="1002">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="1003">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="1004">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="1005">
+                  <c:v>1006</c:v>
+                </c:pt>
+                <c:pt idx="1006">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="1007">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="1008">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="1009">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="1010">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="1011">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="1012">
+                  <c:v>1013</c:v>
+                </c:pt>
+                <c:pt idx="1013">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="1014">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="1015">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="1016">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="1017">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="1018">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="1019">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="1020">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="1021">
+                  <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="1022">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="1023">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1024">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="1025">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="1026">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="1027">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="1028">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="1029">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="1030">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="1031">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="1032">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="1033">
+                  <c:v>1034</c:v>
+                </c:pt>
+                <c:pt idx="1034">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="1035">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="1036">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="1037">
+                  <c:v>1038</c:v>
+                </c:pt>
+                <c:pt idx="1038">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="1039">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="1040">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="1041">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="1042">
+                  <c:v>1043</c:v>
+                </c:pt>
+                <c:pt idx="1043">
+                  <c:v>1044</c:v>
+                </c:pt>
+                <c:pt idx="1044">
+                  <c:v>1045</c:v>
+                </c:pt>
+                <c:pt idx="1045">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="1046">
+                  <c:v>1047</c:v>
+                </c:pt>
+                <c:pt idx="1047">
+                  <c:v>1048</c:v>
+                </c:pt>
+                <c:pt idx="1048">
+                  <c:v>1049</c:v>
+                </c:pt>
+                <c:pt idx="1049">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="1050">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="1051">
+                  <c:v>1052</c:v>
+                </c:pt>
+                <c:pt idx="1052">
+                  <c:v>1053</c:v>
+                </c:pt>
+                <c:pt idx="1053">
+                  <c:v>1054</c:v>
+                </c:pt>
+                <c:pt idx="1054">
+                  <c:v>1055</c:v>
+                </c:pt>
+                <c:pt idx="1055">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="1056">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="1057">
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="1058">
+                  <c:v>1059</c:v>
+                </c:pt>
+                <c:pt idx="1059">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="1060">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="1061">
+                  <c:v>1062</c:v>
+                </c:pt>
+                <c:pt idx="1062">
+                  <c:v>1063</c:v>
+                </c:pt>
+                <c:pt idx="1063">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="1064">
+                  <c:v>1065</c:v>
+                </c:pt>
+                <c:pt idx="1065">
+                  <c:v>1066</c:v>
+                </c:pt>
+                <c:pt idx="1066">
+                  <c:v>1067</c:v>
+                </c:pt>
+                <c:pt idx="1067">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="1068">
+                  <c:v>1069</c:v>
+                </c:pt>
+                <c:pt idx="1069">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="1070">
+                  <c:v>1071</c:v>
+                </c:pt>
+                <c:pt idx="1071">
+                  <c:v>1072</c:v>
+                </c:pt>
+                <c:pt idx="1072">
+                  <c:v>1073</c:v>
+                </c:pt>
+                <c:pt idx="1073">
+                  <c:v>1074</c:v>
+                </c:pt>
+                <c:pt idx="1074">
+                  <c:v>1075</c:v>
+                </c:pt>
+                <c:pt idx="1075">
+                  <c:v>1076</c:v>
+                </c:pt>
+                <c:pt idx="1076">
+                  <c:v>1077</c:v>
+                </c:pt>
+                <c:pt idx="1077">
+                  <c:v>1078</c:v>
+                </c:pt>
+                <c:pt idx="1078">
+                  <c:v>1079</c:v>
+                </c:pt>
+                <c:pt idx="1079">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="1080">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="1081">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="1082">
+                  <c:v>1083</c:v>
+                </c:pt>
+                <c:pt idx="1083">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="1084">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="1085">
+                  <c:v>1086</c:v>
+                </c:pt>
+                <c:pt idx="1086">
+                  <c:v>1087</c:v>
+                </c:pt>
+                <c:pt idx="1087">
+                  <c:v>1088</c:v>
+                </c:pt>
+                <c:pt idx="1088">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="1089">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="1090">
+                  <c:v>1091</c:v>
+                </c:pt>
+                <c:pt idx="1091">
+                  <c:v>1092</c:v>
+                </c:pt>
+                <c:pt idx="1092">
+                  <c:v>1093</c:v>
+                </c:pt>
+                <c:pt idx="1093">
+                  <c:v>1094</c:v>
+                </c:pt>
+                <c:pt idx="1094">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="1095">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="1096">
+                  <c:v>1097</c:v>
+                </c:pt>
+                <c:pt idx="1097">
+                  <c:v>1098</c:v>
+                </c:pt>
+                <c:pt idx="1098">
+                  <c:v>1099</c:v>
+                </c:pt>
+                <c:pt idx="1099">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="1100">
+                  <c:v>1101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$B$2:$B$1102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1101"/>
+                <c:pt idx="0">
+                  <c:v>-998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-990</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-963</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-950</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-935</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-918</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-878</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-855</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-830</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-803</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-774</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-743</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-710</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-675</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-638</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-599</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-558</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-515</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-470</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-423</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-374</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-323</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-215</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-158</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-99</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-38</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1117</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1305</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1402</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1602</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1705</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1810</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1917</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2137</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2365</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2482</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2722</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2845</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2970</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3097</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3226</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3357</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3490</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3625</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3762</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3901</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4042</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4185</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4330</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4477</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4626</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4777</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4930</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5085</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5242</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5401</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5562</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5725</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5890</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6057</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6226</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6397</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6570</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6745</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6922</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7101</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7282</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7465</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7650</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7837</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8026</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8217</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8410</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8605</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8802</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9202</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>9405</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>9610</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9817</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10026</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10237</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10450</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10665</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10882</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>11101</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11322</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11545</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11770</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11997</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>12226</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>12457</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>12690</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>12925</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>13162</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>13401</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>13642</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>13885</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>14130</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>14377</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>14626</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>14877</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>15130</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>15385</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>15642</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>15901</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>16162</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>16425</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>16690</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>16957</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>17226</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>17497</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>17770</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>18045</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>18322</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>18601</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>18882</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>19165</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>19450</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>19737</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>20026</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>20317</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>20610</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>20905</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>21202</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>21501</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>21802</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>22105</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>22410</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>22717</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>23026</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>23337</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>23650</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>23965</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>24282</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>24601</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>24922</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>25245</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>25570</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>25897</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>26226</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>26557</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>26890</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>27225</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>27562</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>27901</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>28242</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>28585</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>28930</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>29277</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>29626</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>29977</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>30330</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>30685</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>31042</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>31401</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>31762</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>32125</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>32490</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>32857</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>33226</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>33597</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>33970</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>34345</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>34722</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>35101</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>35482</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>35865</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>36250</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>36637</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>37026</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>37417</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>37810</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>38205</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>38602</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>39001</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>39402</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>39805</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>40210</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>40617</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>41026</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>41437</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>41850</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>42265</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>43522</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44370</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>45226</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>46090</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>46525</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>46962</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>47401</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>47842</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>48285</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>48730</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>49177</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>49626</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>50077</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>50530</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>50985</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>51442</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>51901</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>52362</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>52825</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>53290</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>53757</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>54226</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>54697</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>55170</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>55645</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>56122</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>56601</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>57082</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>57565</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>58050</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>58537</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>59026</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>59517</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>60010</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>60505</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>61002</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>61501</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>62002</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>62505</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>63010</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>63517</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>64026</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>64537</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>65050</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>65565</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>66082</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>66601</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>67122</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>67645</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>68170</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>68697</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>69226</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>69757</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>70290</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>70825</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>71362</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>71901</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>72442</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>72985</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>73530</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>74077</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>74626</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>75177</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>75730</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>76285</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>76842</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>77401</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>77962</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>78525</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>79090</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>79657</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>80226</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>80797</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>81370</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>81945</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>82522</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>83101</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>83682</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>84265</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>84850</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>85437</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>86026</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>86617</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>87210</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>87805</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>88402</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>89001</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>89602</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>90205</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>90810</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>91417</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>92026</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>92637</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>93250</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>93865</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>94482</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>95101</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>95722</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>96345</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>96970</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>97597</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>98226</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>98857</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>99490</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>100125</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>100762</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>101401</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>102042</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>102685</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>103330</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>103977</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>104626</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>105277</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>105930</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>106585</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>107242</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>107901</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>108562</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>109225</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>109890</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>110557</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>111226</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>111897</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>112570</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>113245</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>113922</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>114601</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>115282</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>115965</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>116650</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>117337</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>118026</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>118717</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>119410</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>120105</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>120802</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>121501</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>122202</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>122905</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>123610</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>124317</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>125026</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>125737</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>126450</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>127165</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>127882</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>128601</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>129322</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>130045</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>130770</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>131497</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>132226</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>132957</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>133690</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>134425</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>135162</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>135901</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>136642</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>137385</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>138130</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>138877</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>139626</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>140377</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>141130</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>141885</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>142642</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>143401</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>144162</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>144925</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>145690</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>146457</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>147226</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>147997</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>148770</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>149545</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>150322</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>151101</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>151882</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>152665</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>153450</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>154237</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>155026</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>155817</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>156610</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>157405</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>158202</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>159001</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>159802</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>160605</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>161410</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>162217</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>163026</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>163837</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>164650</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>165465</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>166282</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>167101</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>167922</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>168745</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>169570</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>170397</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>171226</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>172057</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>172890</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>173725</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>174562</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>175401</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>176242</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>177085</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>177930</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>178777</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>179626</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>180477</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>181330</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>182185</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>183042</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>183901</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>184762</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>185625</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>186490</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>187357</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>188226</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>189097</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>189970</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>190845</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>191722</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>192601</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>193482</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>194365</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>195250</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>196137</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>197026</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>197917</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>198810</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>199705</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>200602</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>201501</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>202402</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>203305</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>204210</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>205117</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>206026</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>206937</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>207850</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>208765</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>209682</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>210601</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>211522</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>212445</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>213370</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>214297</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>215226</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>216157</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>217090</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>218025</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>218962</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>219901</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>220842</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>221785</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>222730</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>223677</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>224626</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>225577</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>226530</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>227485</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>228442</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>229401</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>230362</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>231325</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>232290</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>233257</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>234226</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>235197</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>236170</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>237145</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>238122</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>239101</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>240082</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>241065</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>242050</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>243037</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>244026</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>245017</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>246010</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>247005</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>248002</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>249001</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>250002</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>251005</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>252010</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>253017</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>254026</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>255037</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>256050</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>257065</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>258082</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>259101</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>260122</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>261145</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>262170</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>263197</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>264226</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>265257</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>266290</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>267325</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>268362</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>269401</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>270442</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>271485</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>272530</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>273577</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>274626</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>275677</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>276730</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>277785</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>278842</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>279901</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>280962</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>282025</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>283090</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>284157</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>285226</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>286297</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>287370</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>288445</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>289522</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>290601</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>291682</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>292765</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>293850</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>294937</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>296026</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>297117</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>298210</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>299305</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>300402</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>301501</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>302602</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>303705</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>304810</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>305917</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>307026</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>308137</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>309250</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>310365</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>311482</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>312601</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>313722</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>314845</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>315970</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>317097</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>318226</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>319357</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>320490</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>321625</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>322762</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>323901</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>325042</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>326185</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>327330</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>328477</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>329626</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>330777</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>331930</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>333085</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>334242</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>335401</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>336562</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>337725</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>338890</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>340057</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>341226</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>342397</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>343570</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>344745</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>345922</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>347101</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>348282</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>349465</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>350650</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>351837</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>353026</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>354217</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>355410</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>356605</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>357802</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>359001</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>360202</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>361405</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>362610</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>363817</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>365026</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>366237</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>367450</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>368665</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>369882</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>371101</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>372322</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>373545</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>374770</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>375997</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>377226</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>378457</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>379690</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>380925</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>382162</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>383401</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>384642</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>385885</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>387130</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>388377</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>389626</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>390877</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>392130</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>393385</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>394642</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>395901</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>397162</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>398425</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>399690</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>400957</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>402226</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>403497</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>404770</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>406045</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>407322</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>408601</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>409882</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>411165</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>412450</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>413737</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>415026</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>416317</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>417610</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>418905</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>420202</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>421501</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>422802</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>424105</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>425410</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>426717</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>428026</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>429337</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>430650</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>431965</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>433282</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>434601</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>435922</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>437245</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>438570</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>439897</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>441226</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>442557</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>443890</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>445225</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>446562</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>447901</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>449242</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>450585</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>451930</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>453277</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>454626</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>455977</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>457330</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>458685</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>460042</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>461401</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>462762</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>464125</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>465490</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>466857</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>468226</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>469597</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>470970</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>472345</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>473722</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>475101</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>476482</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>477865</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>479250</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>480637</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>482026</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>483417</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>484810</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>486205</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>487602</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>489001</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>490402</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>491805</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>493210</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>494617</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>496026</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>497437</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>498850</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>500265</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>501682</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>503101</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>504522</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>505945</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>507370</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>508797</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>510226</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>511657</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>513090</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>514525</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>515962</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>517401</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>518842</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>520285</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>521730</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>523177</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>524626</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>526077</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>527530</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>528985</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>530442</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>531901</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>533362</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>534825</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>536290</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>537757</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>539226</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>540697</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>542170</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>543645</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>545122</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>546601</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>548082</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>549565</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>551050</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>552537</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>554026</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>555517</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>557010</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>558505</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>560002</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>561501</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>563002</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>564505</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>566010</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>567517</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>569026</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>570537</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>572050</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>573565</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>575082</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>576601</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>578122</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>579645</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>581170</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>582697</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>584226</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>585757</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>587290</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>588825</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>590362</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>591901</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>593442</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>594985</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>596530</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>598077</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>599626</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>601177</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>602730</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>604285</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>605842</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>607401</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>608962</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>610525</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>612090</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>613657</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>615226</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>616797</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>618370</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>619945</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>621522</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>623101</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>624682</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>626265</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>627850</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>629437</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>631026</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>632617</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>634210</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>635805</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>637402</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>639001</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>640602</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>642205</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>643810</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>645417</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>647026</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>648637</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>650250</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>651865</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>653482</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>655101</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>656722</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>658345</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>659970</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>661597</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>663226</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>664857</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>666490</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>668125</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>669762</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>671401</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>673042</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>674685</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>676330</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>677977</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>679626</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>681277</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>682930</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>684585</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>686242</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>687901</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>689562</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>691225</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>692890</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>694557</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>696226</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>697897</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>699570</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>701245</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>702922</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>704601</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>706282</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>707965</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>709650</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>711337</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>713026</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>714717</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>716410</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>718105</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>719802</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>721501</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>723202</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>724905</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>726610</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>728317</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>730026</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>731737</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>733450</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>735165</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>736882</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>738601</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>740322</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>742045</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>743770</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>745497</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>747226</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>748957</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>750690</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>752425</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>754162</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>755901</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>757642</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>759385</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>761130</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>762877</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>764626</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>766377</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>768130</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>769885</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>771642</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>773401</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>775162</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>776925</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>778690</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>780457</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>782226</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>783997</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>785770</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>787545</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>789322</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>791101</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>792882</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>794665</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>796450</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>798237</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>800026</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>801817</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>803610</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>805405</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>807202</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>809001</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>810802</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>812605</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>814410</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>816217</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>818026</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>819837</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>821650</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>823465</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>825282</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>827101</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>828922</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>830745</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>832570</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>834397</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>836226</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>838057</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>839890</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>841725</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>843562</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>845401</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>847242</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>849085</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>850930</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>852777</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>854626</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>856477</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>858330</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>860185</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>862042</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>863901</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>865762</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>867625</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>869490</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>871357</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>873226</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>875097</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>876970</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>878845</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>880722</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>882601</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>884482</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>886365</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>888250</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>890137</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>892026</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>893917</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>895810</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>897705</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>899602</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>901501</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>903402</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>905305</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>907210</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>909117</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>911026</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>912937</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>914850</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>916765</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>918682</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>920601</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>922522</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>924445</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>926370</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>928297</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>930226</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>932157</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>934090</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>936025</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>937962</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>939901</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>941842</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>943785</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>945730</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>947677</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>949626</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>951577</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>953530</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>955485</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>957442</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>959401</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>961362</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>963325</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>965290</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>967257</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>969226</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>971197</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>973170</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>975145</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>977122</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>979101</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>981082</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>983065</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>985050</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>987037</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>989026</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>991017</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>993010</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>995005</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>997002</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>999001</c:v>
+                </c:pt>
+                <c:pt idx="1000">
+                  <c:v>1001002</c:v>
+                </c:pt>
+                <c:pt idx="1001">
+                  <c:v>1003005</c:v>
+                </c:pt>
+                <c:pt idx="1002">
+                  <c:v>1005010</c:v>
+                </c:pt>
+                <c:pt idx="1003">
+                  <c:v>1007017</c:v>
+                </c:pt>
+                <c:pt idx="1004">
+                  <c:v>1009026</c:v>
+                </c:pt>
+                <c:pt idx="1005">
+                  <c:v>1011037</c:v>
+                </c:pt>
+                <c:pt idx="1006">
+                  <c:v>1013050</c:v>
+                </c:pt>
+                <c:pt idx="1007">
+                  <c:v>1015065</c:v>
+                </c:pt>
+                <c:pt idx="1008">
+                  <c:v>1017082</c:v>
+                </c:pt>
+                <c:pt idx="1009">
+                  <c:v>1019101</c:v>
+                </c:pt>
+                <c:pt idx="1010">
+                  <c:v>1021122</c:v>
+                </c:pt>
+                <c:pt idx="1011">
+                  <c:v>1023145</c:v>
+                </c:pt>
+                <c:pt idx="1012">
+                  <c:v>1025170</c:v>
+                </c:pt>
+                <c:pt idx="1013">
+                  <c:v>1027197</c:v>
+                </c:pt>
+                <c:pt idx="1014">
+                  <c:v>1029226</c:v>
+                </c:pt>
+                <c:pt idx="1015">
+                  <c:v>1031257</c:v>
+                </c:pt>
+                <c:pt idx="1016">
+                  <c:v>1033290</c:v>
+                </c:pt>
+                <c:pt idx="1017">
+                  <c:v>1035325</c:v>
+                </c:pt>
+                <c:pt idx="1018">
+                  <c:v>1037362</c:v>
+                </c:pt>
+                <c:pt idx="1019">
+                  <c:v>1039401</c:v>
+                </c:pt>
+                <c:pt idx="1020">
+                  <c:v>1041442</c:v>
+                </c:pt>
+                <c:pt idx="1021">
+                  <c:v>1043485</c:v>
+                </c:pt>
+                <c:pt idx="1022">
+                  <c:v>1045530</c:v>
+                </c:pt>
+                <c:pt idx="1023">
+                  <c:v>1047577</c:v>
+                </c:pt>
+                <c:pt idx="1024">
+                  <c:v>1049626</c:v>
+                </c:pt>
+                <c:pt idx="1025">
+                  <c:v>1051677</c:v>
+                </c:pt>
+                <c:pt idx="1026">
+                  <c:v>1053730</c:v>
+                </c:pt>
+                <c:pt idx="1027">
+                  <c:v>1055785</c:v>
+                </c:pt>
+                <c:pt idx="1028">
+                  <c:v>1057842</c:v>
+                </c:pt>
+                <c:pt idx="1029">
+                  <c:v>1059901</c:v>
+                </c:pt>
+                <c:pt idx="1030">
+                  <c:v>1061962</c:v>
+                </c:pt>
+                <c:pt idx="1031">
+                  <c:v>1064025</c:v>
+                </c:pt>
+                <c:pt idx="1032">
+                  <c:v>1066090</c:v>
+                </c:pt>
+                <c:pt idx="1033">
+                  <c:v>1068157</c:v>
+                </c:pt>
+                <c:pt idx="1034">
+                  <c:v>1070226</c:v>
+                </c:pt>
+                <c:pt idx="1035">
+                  <c:v>1072297</c:v>
+                </c:pt>
+                <c:pt idx="1036">
+                  <c:v>1074370</c:v>
+                </c:pt>
+                <c:pt idx="1037">
+                  <c:v>1076445</c:v>
+                </c:pt>
+                <c:pt idx="1038">
+                  <c:v>1078522</c:v>
+                </c:pt>
+                <c:pt idx="1039">
+                  <c:v>1080601</c:v>
+                </c:pt>
+                <c:pt idx="1040">
+                  <c:v>1082682</c:v>
+                </c:pt>
+                <c:pt idx="1041">
+                  <c:v>1084765</c:v>
+                </c:pt>
+                <c:pt idx="1042">
+                  <c:v>1086850</c:v>
+                </c:pt>
+                <c:pt idx="1043">
+                  <c:v>1088937</c:v>
+                </c:pt>
+                <c:pt idx="1044">
+                  <c:v>1091026</c:v>
+                </c:pt>
+                <c:pt idx="1045">
+                  <c:v>1093117</c:v>
+                </c:pt>
+                <c:pt idx="1046">
+                  <c:v>1095210</c:v>
+                </c:pt>
+                <c:pt idx="1047">
+                  <c:v>1097305</c:v>
+                </c:pt>
+                <c:pt idx="1048">
+                  <c:v>1099402</c:v>
+                </c:pt>
+                <c:pt idx="1049">
+                  <c:v>1101501</c:v>
+                </c:pt>
+                <c:pt idx="1050">
+                  <c:v>1103602</c:v>
+                </c:pt>
+                <c:pt idx="1051">
+                  <c:v>1105705</c:v>
+                </c:pt>
+                <c:pt idx="1052">
+                  <c:v>1107810</c:v>
+                </c:pt>
+                <c:pt idx="1053">
+                  <c:v>1109917</c:v>
+                </c:pt>
+                <c:pt idx="1054">
+                  <c:v>1112026</c:v>
+                </c:pt>
+                <c:pt idx="1055">
+                  <c:v>1114137</c:v>
+                </c:pt>
+                <c:pt idx="1056">
+                  <c:v>1116250</c:v>
+                </c:pt>
+                <c:pt idx="1057">
+                  <c:v>1118365</c:v>
+                </c:pt>
+                <c:pt idx="1058">
+                  <c:v>1120482</c:v>
+                </c:pt>
+                <c:pt idx="1059">
+                  <c:v>1122601</c:v>
+                </c:pt>
+                <c:pt idx="1060">
+                  <c:v>1124722</c:v>
+                </c:pt>
+                <c:pt idx="1061">
+                  <c:v>1126845</c:v>
+                </c:pt>
+                <c:pt idx="1062">
+                  <c:v>1128970</c:v>
+                </c:pt>
+                <c:pt idx="1063">
+                  <c:v>1131097</c:v>
+                </c:pt>
+                <c:pt idx="1064">
+                  <c:v>1133226</c:v>
+                </c:pt>
+                <c:pt idx="1065">
+                  <c:v>1135357</c:v>
+                </c:pt>
+                <c:pt idx="1066">
+                  <c:v>1137490</c:v>
+                </c:pt>
+                <c:pt idx="1067">
+                  <c:v>1139625</c:v>
+                </c:pt>
+                <c:pt idx="1068">
+                  <c:v>1141762</c:v>
+                </c:pt>
+                <c:pt idx="1069">
+                  <c:v>1143901</c:v>
+                </c:pt>
+                <c:pt idx="1070">
+                  <c:v>1146042</c:v>
+                </c:pt>
+                <c:pt idx="1071">
+                  <c:v>1148185</c:v>
+                </c:pt>
+                <c:pt idx="1072">
+                  <c:v>1150330</c:v>
+                </c:pt>
+                <c:pt idx="1073">
+                  <c:v>1152477</c:v>
+                </c:pt>
+                <c:pt idx="1074">
+                  <c:v>1154626</c:v>
+                </c:pt>
+                <c:pt idx="1075">
+                  <c:v>1156777</c:v>
+                </c:pt>
+                <c:pt idx="1076">
+                  <c:v>1158930</c:v>
+                </c:pt>
+                <c:pt idx="1077">
+                  <c:v>1161085</c:v>
+                </c:pt>
+                <c:pt idx="1078">
+                  <c:v>1163242</c:v>
+                </c:pt>
+                <c:pt idx="1079">
+                  <c:v>1165401</c:v>
+                </c:pt>
+                <c:pt idx="1080">
+                  <c:v>1167562</c:v>
+                </c:pt>
+                <c:pt idx="1081">
+                  <c:v>1169725</c:v>
+                </c:pt>
+                <c:pt idx="1082">
+                  <c:v>1171890</c:v>
+                </c:pt>
+                <c:pt idx="1083">
+                  <c:v>1174057</c:v>
+                </c:pt>
+                <c:pt idx="1084">
+                  <c:v>1176226</c:v>
+                </c:pt>
+                <c:pt idx="1085">
+                  <c:v>1178397</c:v>
+                </c:pt>
+                <c:pt idx="1086">
+                  <c:v>1180570</c:v>
+                </c:pt>
+                <c:pt idx="1087">
+                  <c:v>1182745</c:v>
+                </c:pt>
+                <c:pt idx="1088">
+                  <c:v>1184922</c:v>
+                </c:pt>
+                <c:pt idx="1089">
+                  <c:v>1187101</c:v>
+                </c:pt>
+                <c:pt idx="1090">
+                  <c:v>1189282</c:v>
+                </c:pt>
+                <c:pt idx="1091">
+                  <c:v>1191465</c:v>
+                </c:pt>
+                <c:pt idx="1092">
+                  <c:v>1193650</c:v>
+                </c:pt>
+                <c:pt idx="1093">
+                  <c:v>1195837</c:v>
+                </c:pt>
+                <c:pt idx="1094">
+                  <c:v>1198026</c:v>
+                </c:pt>
+                <c:pt idx="1095">
+                  <c:v>1200217</c:v>
+                </c:pt>
+                <c:pt idx="1096">
+                  <c:v>1202410</c:v>
+                </c:pt>
+                <c:pt idx="1097">
+                  <c:v>1204605</c:v>
+                </c:pt>
+                <c:pt idx="1098">
+                  <c:v>1206802</c:v>
+                </c:pt>
+                <c:pt idx="1099">
+                  <c:v>1209001</c:v>
+                </c:pt>
+                <c:pt idx="1100">
+                  <c:v>1211202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>推移的X值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4991246739295817E-2"/>
+                  <c:y val="-0.1721487709697935"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9618725872128644E-2"/>
+                  <c:y val="-0.14232421068991657"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1490862631657337E-2"/>
+                  <c:y val="-0.24508880139982511"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.0750902153421992E-2"/>
+                  <c:y val="-0.14503553435172348"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$E$7:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250.999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127.48954776911461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.662742131684524</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.213572618180748</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.726580063142478</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.626113065211403</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.60696705743235</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.606961258558748</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.606961258558218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$F$7:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>997002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>249001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62001.498001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15254.584790373356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3579.246672778836</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>699.55856795405793</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72.029042629274727</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.211027613535407</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6656961378866981E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3537617127876729E-11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1945367792"/>
+        <c:axId val="-1945375952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1945367792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1945375952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1945375952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1945367792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7557,7 +14795,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8205,6 +15999,7 @@
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
+                <a:pPr/>
                 <a14:m>
                   <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                     <m:oMathParaPr>
@@ -8311,7 +16106,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -8324,7 +16119,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -8338,7 +16133,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -8366,7 +16161,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -8382,19 +16177,7 @@
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>′</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>(</m:t>
+                            <m:t>′(</m:t>
                           </m:r>
                           <m:sSub>
                             <m:sSubPr>
@@ -8404,7 +16187,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -8417,7 +16200,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -8431,7 +16214,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -8445,7 +16228,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -8496,6 +16279,7 @@
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
+                <a:pPr/>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="0">
                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -8508,71 +16292,11 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>𝑋_𝑛</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:effectLst/>
                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:rPr>
-                  <a:t>))/(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>𝑓</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>′</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>(𝑋_𝑛)</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>)</a:t>
+                  <a:t>𝑋_𝑛))/(𝑓′(𝑋_𝑛))</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1600"/>
               </a:p>
@@ -8580,64 +16304,6 @@
           </xdr:sp>
         </mc:Fallback>
       </mc:AlternateContent>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="7" name="直線接點 6"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9838765" y="4818530"/>
-            <a:ext cx="4385" cy="581731"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="9" name="直線接點 8"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8538883" y="5277971"/>
-            <a:ext cx="3410" cy="138855"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
       <xdr:sp macro="" textlink="$H$1">
         <xdr:nvSpPr>
           <xdr:cNvPr id="15" name="直線圖說文字 2 14"/>
@@ -8688,6 +16354,7 @@
                 <a:latin typeface="新細明體"/>
                 <a:ea typeface="新細明體"/>
               </a:rPr>
+              <a:pPr algn="l"/>
               <a:t>f(x) = x^2 - 999</a:t>
             </a:fld>
             <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
@@ -8697,10 +16364,335 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>252853</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="圖表 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.44329</cdr:x>
+      <cdr:y>0.83142</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48973</cdr:x>
+      <cdr:y>0.8879</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="14" name="文字方塊 12"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3143624" y="3894418"/>
+          <a:ext cx="329386" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>X1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.24577</cdr:x>
+      <cdr:y>0.84338</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.29221</cdr:x>
+      <cdr:y>0.89986</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="19" name="文字方塊 12"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1742888" y="3950447"/>
+          <a:ext cx="329386" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>X2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -9107,6 +17099,697 @@
       </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.11297</cdr:x>
+      <cdr:y>0.19835</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.3963</cdr:x>
+      <cdr:y>0.3078</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="7" name="文字方塊 2"/>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="826407" y="890648"/>
+              <a:ext cx="2072487" cy="491502"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </cdr:style>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑋</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑋</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑋</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>′(</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑋</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1600"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="7" name="文字方塊 2"/>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="826407" y="890648"/>
+              <a:ext cx="2072487" cy="491502"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </cdr:style>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑋_(𝑛+1) "=" 𝑋_𝑛−(𝑓(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑋_𝑛))/(𝑓′(𝑋_𝑛))</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1600"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.59402</cdr:x>
+      <cdr:y>0.13556</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.78872</cdr:x>
+      <cdr:y>0.24099</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="直線圖說文字 2 8"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4345221" y="608693"/>
+          <a:ext cx="1424204" cy="473436"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 110179"/>
+            <a:gd name="adj2" fmla="val 50083"/>
+            <a:gd name="adj3" fmla="val 147322"/>
+            <a:gd name="adj4" fmla="val 45709"/>
+            <a:gd name="adj5" fmla="val 223929"/>
+            <a:gd name="adj6" fmla="val 64224"/>
+          </a:avLst>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:fld id="{3EE839DF-1BE8-46D2-9FA1-5816429FFB6C}" type="TxLink">
+            <a:rPr lang="en-US" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="新細明體"/>
+              <a:ea typeface="新細明體"/>
+            </a:rPr>
+            <a:pPr algn="l"/>
+            <a:t>f(x) = x^2 - 999</a:t>
+          </a:fld>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
 
@@ -9400,7 +18083,7 @@
   <dimension ref="A1:L2004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -9417,10 +18100,10 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="5">
         <v>2</v>
       </c>
       <c r="G1" t="s">
@@ -9430,8 +18113,8 @@
         <f>"f(x) = x^"&amp;E1&amp;" - "&amp;E2</f>
         <v>f(x) = x^2 - 999</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>40</v>
+      <c r="K1" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="L1" s="9">
         <f>POWER(E2,1/E1)</f>
@@ -9446,10 +18129,10 @@
         <f>POWER(A2,$E$1)-$E$2</f>
         <v>-998</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="7">
         <v>999</v>
       </c>
       <c r="G2" t="s">
@@ -9496,16 +18179,16 @@
         <v>-974</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -9519,11 +18202,11 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="2">
         <f>E2</f>
         <v>999</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="3">
         <f>E7^$E$1-$E$2</f>
         <v>997002</v>
       </c>
@@ -9543,11 +18226,11 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="2">
         <f>E7-F7/G7</f>
         <v>500</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="3">
         <f t="shared" ref="F8:F37" si="1">E8^$E$1-$E$2</f>
         <v>249001</v>
       </c>
@@ -9567,11 +18250,11 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="2">
         <f t="shared" ref="E9:E37" si="3">E8-F8/G8</f>
         <v>250.999</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="3">
         <f t="shared" si="1"/>
         <v>62001.498001</v>
       </c>
@@ -9591,11 +18274,11 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="2">
         <f t="shared" si="3"/>
         <v>127.48954776911461</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="3">
         <f t="shared" si="1"/>
         <v>15254.584790373356</v>
       </c>
@@ -9615,11 +18298,11 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="2">
         <f t="shared" si="3"/>
         <v>67.662742131684524</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="3">
         <f t="shared" si="1"/>
         <v>3579.246672778836</v>
       </c>
@@ -9639,11 +18322,11 @@
       <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="2">
         <f t="shared" si="3"/>
         <v>41.213572618180748</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="3">
         <f t="shared" si="1"/>
         <v>699.55856795405793</v>
       </c>
@@ -9663,11 +18346,11 @@
       <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="2">
         <f t="shared" si="3"/>
         <v>32.726580063142478</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="3">
         <f t="shared" si="1"/>
         <v>72.029042629274727</v>
       </c>
@@ -9687,11 +18370,11 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="2">
         <f t="shared" si="3"/>
         <v>31.626113065211403</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="3">
         <f t="shared" si="1"/>
         <v>1.211027613535407</v>
       </c>
@@ -9711,11 +18394,11 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="2">
         <f t="shared" si="3"/>
         <v>31.60696705743235</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="3">
         <f t="shared" si="1"/>
         <v>3.6656961378866981E-4</v>
       </c>
@@ -9735,11 +18418,11 @@
       <c r="D16" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="2">
         <f t="shared" si="3"/>
         <v>31.606961258558748</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="3">
         <f t="shared" si="1"/>
         <v>3.3537617127876729E-11</v>
       </c>
@@ -9759,11 +18442,11 @@
       <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="2">
         <f t="shared" si="3"/>
         <v>31.606961258558218</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9783,11 +18466,11 @@
       <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="2">
         <f t="shared" si="3"/>
         <v>31.606961258558218</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9807,11 +18490,11 @@
       <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="2">
         <f t="shared" si="3"/>
         <v>31.606961258558218</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9831,11 +18514,11 @@
       <c r="D20" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="2">
         <f t="shared" si="3"/>
         <v>31.606961258558218</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9855,11 +18538,11 @@
       <c r="D21" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="2">
         <f t="shared" si="3"/>
         <v>31.606961258558218</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9879,11 +18562,11 @@
       <c r="D22" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="2">
         <f t="shared" si="3"/>
         <v>31.606961258558218</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9903,11 +18586,11 @@
       <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="2">
         <f t="shared" si="3"/>
         <v>31.606961258558218</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9927,11 +18610,11 @@
       <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="2">
         <f t="shared" si="3"/>
         <v>31.606961258558218</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9951,11 +18634,11 @@
       <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="2">
         <f t="shared" si="3"/>
         <v>31.606961258558218</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9975,11 +18658,11 @@
       <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="2">
         <f t="shared" si="3"/>
         <v>31.606961258558218</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9997,13 +18680,13 @@
         <v>-323</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="6">
+        <v>26</v>
+      </c>
+      <c r="E27" s="2">
         <f t="shared" si="3"/>
         <v>31.606961258558218</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10021,13 +18704,13 @@
         <v>-270</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="6">
+        <v>27</v>
+      </c>
+      <c r="E28" s="2">
         <f t="shared" si="3"/>
         <v>31.606961258558218</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10045,13 +18728,13 @@
         <v>-215</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="6">
+        <v>28</v>
+      </c>
+      <c r="E29" s="2">
         <f t="shared" si="3"/>
         <v>31.606961258558218</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10069,13 +18752,13 @@
         <v>-158</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="6">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2">
         <f t="shared" si="3"/>
         <v>31.606961258558218</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10093,13 +18776,13 @@
         <v>-99</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="6">
+        <v>30</v>
+      </c>
+      <c r="E31" s="2">
         <f t="shared" si="3"/>
         <v>31.606961258558218</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10117,13 +18800,13 @@
         <v>-38</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="6">
+        <v>31</v>
+      </c>
+      <c r="E32" s="2">
         <f t="shared" si="3"/>
         <v>31.606961258558218</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10141,13 +18824,13 @@
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="6">
+        <v>32</v>
+      </c>
+      <c r="E33" s="2">
         <f t="shared" si="3"/>
         <v>31.606961258558218</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10165,13 +18848,13 @@
         <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="6">
+        <v>33</v>
+      </c>
+      <c r="E34" s="2">
         <f t="shared" si="3"/>
         <v>31.606961258558218</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10189,13 +18872,13 @@
         <v>157</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="6">
+        <v>34</v>
+      </c>
+      <c r="E35" s="2">
         <f t="shared" si="3"/>
         <v>31.606961258558218</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10213,13 +18896,13 @@
         <v>226</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="6">
+        <v>35</v>
+      </c>
+      <c r="E36" s="2">
         <f t="shared" si="3"/>
         <v>31.606961258558218</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10237,13 +18920,13 @@
         <v>297</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="6">
+        <v>36</v>
+      </c>
+      <c r="E37" s="2">
         <f t="shared" si="3"/>
         <v>31.606961258558218</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
